--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2685.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2685.xlsx
@@ -354,7 +354,7 @@
         <v>2.420126520545644</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.332485776655677</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2685.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2685.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161908303569482</v>
+        <v>0.8530270457267761</v>
       </c>
       <c r="B1">
-        <v>2.420126520545644</v>
+        <v>1.274253129959106</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.668391704559326</v>
       </c>
       <c r="D1">
-        <v>2.332485776655677</v>
+        <v>3.936103343963623</v>
       </c>
       <c r="E1">
-        <v>1.214907200832398</v>
+        <v>1.849095821380615</v>
       </c>
     </row>
   </sheetData>
